--- a/Valves.xlsx
+++ b/Valves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h5315731\Projects\Waste Transfer Wizard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F72D492-87EB-4D63-9FA2-0B06E2F89BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0255BA-F7F9-463E-ABE7-A0C975716FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" activeTab="10" xr2:uid="{2CBB5055-5C05-44FF-A5D7-AA273FC78479}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="7" activeTab="10" xr2:uid="{2CBB5055-5C05-44FF-A5D7-AA273FC78479}"/>
   </bookViews>
   <sheets>
     <sheet name="Procedure" sheetId="17" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1146">
   <si>
     <t>A</t>
   </si>
@@ -3559,12 +3559,6 @@
     <t>AW02A-WT-TKR-101 (L-M-N)</t>
   </si>
   <si>
-    <t>AW02A-WT-TKR-101 (2)</t>
-  </si>
-  <si>
-    <t>AW02A-WT-TKR-101 (1)</t>
-  </si>
-  <si>
     <t>242-A-EVAP</t>
   </si>
   <si>
@@ -3572,6 +3566,72 @@
   </si>
   <si>
     <t>AW02E-SPLIT-GJ8</t>
+  </si>
+  <si>
+    <t>AWVPA-PBB-102-G</t>
+  </si>
+  <si>
+    <t>AW05A-TKR</t>
+  </si>
+  <si>
+    <t>DVI Credited</t>
+  </si>
+  <si>
+    <t>AP02D-NOZ-1</t>
+  </si>
+  <si>
+    <t>AW05A-TKR-SD</t>
+  </si>
+  <si>
+    <t>AW06A-TKR-H</t>
+  </si>
+  <si>
+    <t>AW06A-PUMP</t>
+  </si>
+  <si>
+    <t>AW06A-TKR-G</t>
+  </si>
+  <si>
+    <t>AW04A-TKR-G</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Nozzle</t>
+  </si>
+  <si>
+    <t>3-Way-Valve</t>
+  </si>
+  <si>
+    <t>Split Point</t>
+  </si>
+  <si>
+    <t>2-Way-Valve</t>
+  </si>
+  <si>
+    <t>AP08A-PUMP</t>
+  </si>
+  <si>
+    <t>AP08A-TKR-E</t>
+  </si>
+  <si>
+    <t>Dropleg</t>
+  </si>
+  <si>
+    <t>AW02A-WT-TKR-101-1</t>
+  </si>
+  <si>
+    <t>AW02A-WT-TKR-101-2</t>
+  </si>
+  <si>
+    <t>AP-101</t>
+  </si>
+  <si>
+    <t>PIT</t>
   </si>
 </sst>
 </file>
@@ -3689,12 +3749,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -4086,6 +4146,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4093,7 +4225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4231,6 +4363,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4261,8 +4420,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4582,14 +4739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211FC65-CBD0-459C-BA51-A2768A3840A7}">
   <dimension ref="B1:N143"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="51" style="2" customWidth="1"/>
@@ -5167,7 +5324,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>70</v>
       </c>
@@ -5188,7 +5345,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>60</v>
       </c>
@@ -5209,7 +5366,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>75</v>
       </c>
@@ -5230,7 +5387,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>74</v>
       </c>
@@ -5251,7 +5408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
@@ -5272,7 +5429,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>68</v>
       </c>
@@ -5293,7 +5450,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
@@ -5314,7 +5471,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
@@ -5335,7 +5492,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
@@ -5356,7 +5513,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>66</v>
       </c>
@@ -5377,7 +5534,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -5398,7 +5555,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>64</v>
       </c>
@@ -5419,7 +5576,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>58</v>
       </c>
@@ -5442,7 +5599,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>53</v>
       </c>
@@ -5465,7 +5622,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
@@ -5488,7 +5645,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>42</v>
       </c>
@@ -5511,7 +5668,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>55</v>
       </c>
@@ -5534,7 +5691,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
@@ -5557,7 +5714,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
@@ -5580,7 +5737,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>308</v>
       </c>
@@ -5601,7 +5758,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>309</v>
       </c>
@@ -5622,7 +5779,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>45</v>
       </c>
@@ -5643,7 +5800,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>46</v>
       </c>
@@ -5664,7 +5821,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5685,7 +5842,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>47</v>
       </c>
@@ -5706,7 +5863,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
@@ -5727,7 +5884,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>48</v>
       </c>
@@ -5748,7 +5905,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>50</v>
       </c>
@@ -5769,7 +5926,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>49</v>
       </c>
@@ -5790,7 +5947,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
@@ -5811,7 +5968,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>54</v>
       </c>
@@ -5832,7 +5989,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>298</v>
       </c>
@@ -5853,7 +6010,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>299</v>
       </c>
@@ -5874,7 +6031,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>300</v>
       </c>
@@ -5895,7 +6052,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>301</v>
       </c>
@@ -5916,7 +6073,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>302</v>
       </c>
@@ -5937,7 +6094,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>303</v>
       </c>
@@ -5958,7 +6115,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>304</v>
       </c>
@@ -5979,7 +6136,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>246</v>
       </c>
@@ -7323,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C28D5F0-0A1D-4157-BA7F-8165E9C08C58}">
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7383,7 +7540,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="96" t="s">
         <v>603</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -7395,19 +7552,19 @@
       <c r="F3" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="100" t="s">
         <v>579</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="103" t="s">
         <v>585</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="96" t="s">
         <v>580</v>
       </c>
       <c r="O3" s="36" t="s">
@@ -7415,25 +7572,25 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="103" t="s">
         <v>593</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="N4" s="76"/>
+      <c r="N4" s="97"/>
       <c r="O4" s="34" t="s">
         <v>573</v>
       </c>
@@ -7445,111 +7602,111 @@
       <c r="C5" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="H5" s="80"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="K5" s="84"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="N5" s="76"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="34" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="96" t="s">
         <v>601</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="103" t="s">
         <v>594</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="H6" s="80"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="K6" s="84"/>
+      <c r="K6" s="105"/>
       <c r="L6" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="97"/>
       <c r="O6" s="34" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="K7" s="84"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="N7" s="76"/>
+      <c r="N7" s="97"/>
       <c r="O7" s="34" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="105" t="s">
         <v>595</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>645</v>
       </c>
-      <c r="H8" s="80"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="K8" s="83"/>
+      <c r="K8" s="104"/>
       <c r="L8" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="N8" s="77"/>
+      <c r="N8" s="98"/>
       <c r="O8" s="37" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="97" t="s">
         <v>600</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="103" t="s">
         <v>586</v>
       </c>
       <c r="L9" s="36" t="s">
@@ -7563,25 +7720,25 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="77"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="105" t="s">
         <v>596</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="80"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="K10" s="83"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="75" t="s">
+      <c r="N10" s="96" t="s">
         <v>582</v>
       </c>
       <c r="O10" s="36" t="s">
@@ -7591,21 +7748,21 @@
     <row r="11" spans="2:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="39"/>
       <c r="C11" s="38"/>
-      <c r="E11" s="83"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="H11" s="80"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="103" t="s">
         <v>587</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="34" t="s">
         <v>578</v>
       </c>
@@ -7613,21 +7770,21 @@
     <row r="12" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39"/>
       <c r="C12" s="38"/>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="103" t="s">
         <v>597</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="80"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="K12" s="83"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="N12" s="77"/>
+      <c r="N12" s="98"/>
       <c r="O12" s="37" t="s">
         <v>6</v>
       </c>
@@ -7635,11 +7792,11 @@
     <row r="13" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
       <c r="C13" s="38"/>
-      <c r="E13" s="83"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="H13" s="80"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="26" t="s">
         <v>649</v>
       </c>
@@ -7659,23 +7816,23 @@
     <row r="14" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="103" t="s">
         <v>598</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="H14" s="80"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="103" t="s">
         <v>589</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="99" t="s">
         <v>584</v>
       </c>
       <c r="O14" s="25" t="s">
@@ -7685,19 +7842,19 @@
     <row r="15" spans="2:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39"/>
       <c r="C15" s="38"/>
-      <c r="E15" s="83"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="H15" s="80"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="K15" s="83"/>
+      <c r="K15" s="104"/>
       <c r="L15" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="N15" s="76"/>
+      <c r="N15" s="97"/>
       <c r="O15" s="26" t="s">
         <v>641</v>
       </c>
@@ -7705,23 +7862,23 @@
     <row r="16" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="38"/>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="103" t="s">
         <v>599</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="H16" s="80"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="K16" s="82" t="s">
+      <c r="K16" s="103" t="s">
         <v>590</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="76"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="26" t="s">
         <v>642</v>
       </c>
@@ -7729,19 +7886,19 @@
     <row r="17" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
-      <c r="E17" s="83"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="H17" s="80"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="K17" s="83"/>
+      <c r="K17" s="104"/>
       <c r="L17" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="N17" s="77"/>
+      <c r="N17" s="98"/>
       <c r="O17" s="28" t="s">
         <v>643</v>
       </c>
@@ -7750,11 +7907,11 @@
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
       <c r="E18" s="39"/>
-      <c r="H18" s="80"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="103" t="s">
         <v>591</v>
       </c>
       <c r="L18" s="29" t="s">
@@ -7764,11 +7921,11 @@
     <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
-      <c r="H19" s="80"/>
+      <c r="H19" s="101"/>
       <c r="I19" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="K19" s="84"/>
+      <c r="K19" s="105"/>
       <c r="L19" s="26" t="s">
         <v>638</v>
       </c>
@@ -7778,11 +7935,11 @@
         <v>571</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="H20" s="80"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="K20" s="83"/>
+      <c r="K20" s="104"/>
       <c r="L20" s="28" t="s">
         <v>639</v>
       </c>
@@ -7790,7 +7947,7 @@
     <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
-      <c r="H21" s="80"/>
+      <c r="H21" s="101"/>
       <c r="I21" s="26" t="s">
         <v>612</v>
       </c>
@@ -7800,7 +7957,7 @@
     <row r="22" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
-      <c r="H22" s="81"/>
+      <c r="H22" s="102"/>
       <c r="I22" s="28" t="s">
         <v>636</v>
       </c>
@@ -8094,1371 +8251,2832 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4C6D1-BA78-43BC-AAF1-B29DF654033E}">
-  <dimension ref="B2:N141"/>
+  <dimension ref="A2:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38" style="2" customWidth="1"/>
-    <col min="8" max="10" width="23.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="71" customWidth="1"/>
+    <col min="5" max="6" width="27.140625" style="71" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="23.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="27" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="91" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>1100</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="70" t="s">
         <v>1101</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="70" t="s">
         <v>1102</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1145</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>1056</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="92" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D4" s="71" t="s">
         <v>1105</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="E4" s="68" t="s">
         <v>1056</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="71" t="s">
         <v>1104</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>1103</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="71" t="s">
         <v>1105</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="71" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="G5" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71" t="s">
         <v>1105</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="71" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71" t="s">
         <v>1106</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="71"/>
+      <c r="H7" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71" t="s">
         <v>1104</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="71" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71" t="s">
         <v>1107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D9" s="71" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="G9" s="71"/>
+      <c r="H9" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71" t="s">
         <v>1108</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D10" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="G10" s="71"/>
+      <c r="H10" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71" t="s">
         <v>1103</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="71" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="G11" s="71"/>
+      <c r="H11" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="82" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>1108</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="81" t="s">
         <v>1103</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="81" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="81"/>
+      <c r="H12" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L15" s="72"/>
+      <c r="N15" s="72"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="72"/>
+      <c r="N16" s="72"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L17" s="72"/>
+      <c r="N17" s="72"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="73"/>
+      <c r="N21" s="73"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L23" s="72"/>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="72"/>
+      <c r="N34" s="72"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="72"/>
+      <c r="N35" s="72"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="L36" s="72"/>
+      <c r="N36" s="72"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="L37" s="72"/>
+      <c r="N37" s="72"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L38" s="72"/>
+      <c r="N38" s="72"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E39" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L39" s="72"/>
+      <c r="N39" s="72"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L40" s="72"/>
+      <c r="N40" s="72"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E41" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="L41" s="72"/>
+      <c r="N41" s="72"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L42" s="72"/>
+      <c r="N42" s="72"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E43" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L43" s="72"/>
+      <c r="N43" s="72"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L44" s="72"/>
+      <c r="N44" s="72"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>847</v>
+      </c>
+      <c r="E45" s="84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L45" s="72"/>
+      <c r="N45" s="72"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D47" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="71" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="L53" s="72"/>
+      <c r="N53" s="72"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L54" s="72"/>
+      <c r="N54" s="72"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E56" s="71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L57" s="72"/>
+      <c r="N57" s="72"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="L58" s="72"/>
+      <c r="N58" s="72"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="L59" s="72"/>
+      <c r="N59" s="72"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C60" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L60" s="72"/>
+      <c r="N60" s="72"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="71" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C63" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C64" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" s="72"/>
+      <c r="N67" s="72"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E68" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="72"/>
+      <c r="N68" s="72"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="L69" s="72"/>
+      <c r="N69" s="72"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D70" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="L70" s="72"/>
+      <c r="N70" s="72"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="72"/>
+      <c r="N71" s="72"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D72" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="L72" s="72"/>
+      <c r="N72" s="72"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L73" s="72"/>
+      <c r="N73" s="72"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E74" s="71" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L74" s="72"/>
+      <c r="N74" s="72"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D75" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E75" s="71" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L75" s="72"/>
+      <c r="N75" s="72"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D76" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L76" s="72"/>
+      <c r="N76" s="72"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D77" s="71" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E77" s="71" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L77" s="72"/>
+      <c r="N77" s="72"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L78" s="72"/>
+      <c r="N78" s="72"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" s="93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L79" s="72"/>
+      <c r="N79" s="72"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L80" s="72"/>
+      <c r="N80" s="72"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E81" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="L81" s="72"/>
+      <c r="N81" s="72"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="L82" s="72"/>
+      <c r="N82" s="72"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="75"/>
+      <c r="B83" s="75" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C83" s="93" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="75"/>
+      <c r="L83" s="72"/>
+      <c r="N83" s="72"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="75"/>
+      <c r="B84" s="75" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C84" s="93" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="75"/>
+      <c r="L84" s="72"/>
+      <c r="N84" s="72"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="75"/>
+      <c r="B85" s="75" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C85" s="93" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="75"/>
+      <c r="L85" s="72"/>
+      <c r="N85" s="72"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="75"/>
+      <c r="B86" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="68"/>
+      <c r="G86" s="75"/>
+      <c r="L86" s="72"/>
+      <c r="N86" s="72"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="75"/>
+      <c r="B87" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F87" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="G87" s="75"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="75"/>
+      <c r="B88" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="F88" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="75"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="75"/>
+      <c r="B89" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="68"/>
+      <c r="G89" s="75"/>
+      <c r="L89" s="72"/>
+      <c r="N89" s="72"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="75"/>
+      <c r="B90" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D90" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="F90" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="G90" s="75"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="75"/>
+      <c r="B91" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="F91" s="68"/>
+      <c r="G91" s="75"/>
+      <c r="L91" s="72"/>
+      <c r="N91" s="72"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="E92" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G92" s="75"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="68"/>
+      <c r="G93" s="75"/>
+      <c r="L93" s="72"/>
+      <c r="N93" s="72"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="75"/>
+      <c r="B94" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="68" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F94" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G94" s="75"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
+      <c r="B95" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D95" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F95" s="68"/>
+      <c r="G95" s="75"/>
+      <c r="L95" s="72"/>
+      <c r="N95" s="72"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="75"/>
+      <c r="B96" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D96" s="68" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="68" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G96" s="75"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="75"/>
+      <c r="B97" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D97" s="68" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E97" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="G97" s="75"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="75"/>
+      <c r="B98" s="75" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C98" s="93" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E98" s="68" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F98" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="G98" s="75"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="75" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C99" s="93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D99" s="68" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="75"/>
+    </row>
+    <row r="100" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="75"/>
+      <c r="B100" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D100" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="68" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F100" s="68"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="77"/>
+      <c r="N100" s="72"/>
+    </row>
+    <row r="101" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="68" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C101" s="94" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
+      <c r="B102" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D102" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F102" s="68"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="77"/>
+      <c r="N102" s="72"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
+      <c r="B103" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D103" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="78"/>
+      <c r="N103" s="73"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="75"/>
+      <c r="B104" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D104" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="75"/>
+      <c r="B105" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D105" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
+      <c r="K105" s="75"/>
+      <c r="L105" s="78"/>
+      <c r="N105" s="73"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="75"/>
+      <c r="B106" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="93" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E106" s="68" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F106" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="G106" s="75"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="75"/>
+      <c r="B107" s="75" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C107" s="94" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D107" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="75"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="75"/>
+      <c r="B108" s="75" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C108" s="94" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D108" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="75"/>
+      <c r="B109" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" s="94" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D109" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109" s="68"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="77"/>
+      <c r="N109" s="72"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="75"/>
+      <c r="B110" s="75" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C110" s="94" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="75"/>
+      <c r="H110" s="75"/>
+      <c r="I110" s="75"/>
+      <c r="J110" s="75"/>
+      <c r="K110" s="75"/>
+      <c r="L110" s="77"/>
+      <c r="N110" s="72"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="75"/>
+      <c r="B111" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="94" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D111" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
+      <c r="N111" s="72"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="75"/>
+      <c r="B112" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="94"/>
+      <c r="D112" s="68" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E112" s="68" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F112" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="75"/>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="75"/>
+      <c r="L112" s="75"/>
+    </row>
+    <row r="113" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="76"/>
+      <c r="B113" s="90" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C113" s="94"/>
+      <c r="D113" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="76"/>
+    </row>
+    <row r="114" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="68"/>
+      <c r="B114" s="68" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C114" s="94"/>
+      <c r="D114" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="68"/>
+      <c r="L114" s="68"/>
+    </row>
+    <row r="115" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="68" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C115" s="94"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="75"/>
+      <c r="B116" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D116" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="F116" s="68"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="75"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="75"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="77"/>
+      <c r="N116" s="72"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="75"/>
+      <c r="B117" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="94"/>
+      <c r="D117" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="79"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="79"/>
+      <c r="N117" s="72"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="75"/>
+      <c r="B118" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D118" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E118" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="F118" s="68"/>
+      <c r="G118" s="75"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="77"/>
+      <c r="N118" s="72"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="75"/>
+      <c r="B119" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" s="94"/>
+      <c r="D119" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="F119" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G119" s="75"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="79"/>
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="75"/>
+      <c r="B120" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" s="94"/>
+      <c r="D120" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="68" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G120" s="75"/>
+      <c r="H120" s="75"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="77"/>
+      <c r="N120" s="72"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="75"/>
+      <c r="B121" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="94"/>
+      <c r="D121" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="77"/>
+      <c r="N121" s="72"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="75"/>
+      <c r="B122" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="94"/>
+      <c r="D122" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="79"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
+      <c r="K122" s="75"/>
+      <c r="L122" s="77"/>
+      <c r="N122" s="72"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="75"/>
+      <c r="B123" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" s="94"/>
+      <c r="D123" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G123" s="75"/>
+      <c r="H123" s="75"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="75"/>
+      <c r="K123" s="75"/>
+      <c r="L123" s="75"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="75"/>
+      <c r="B124" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="94"/>
+      <c r="D124" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F124" s="68" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G124" s="75"/>
+      <c r="H124" s="79"/>
+      <c r="I124" s="75"/>
+      <c r="J124" s="75"/>
+      <c r="K124" s="75"/>
+      <c r="L124" s="79"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="75"/>
+      <c r="B125" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="94"/>
+      <c r="D125" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G125" s="75"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
+      <c r="K125" s="75"/>
+      <c r="L125" s="75"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="75"/>
+      <c r="B126" s="75" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C126" s="94"/>
+      <c r="D126" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="75"/>
+      <c r="H126" s="75"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="75"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="75"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="75"/>
+      <c r="B127" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D127" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F127" s="68"/>
+      <c r="G127" s="75"/>
+      <c r="H127" s="75"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="75"/>
+      <c r="K127" s="75"/>
+      <c r="L127" s="77"/>
+      <c r="N127" s="72"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="75"/>
+      <c r="B128" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D128" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F128" s="68"/>
+      <c r="G128" s="75"/>
+      <c r="H128" s="75"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="75"/>
+      <c r="K128" s="75"/>
+      <c r="L128" s="77"/>
+      <c r="N128" s="72"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="75"/>
+      <c r="B129" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D129" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="75"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="75"/>
+      <c r="B130" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" s="94" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D130" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="G130" s="75"/>
+      <c r="H130" s="75"/>
+      <c r="I130" s="75"/>
+      <c r="J130" s="75"/>
+      <c r="K130" s="75"/>
+      <c r="L130" s="75"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="75"/>
+      <c r="B131" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D131" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E131" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" s="68"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="77"/>
+      <c r="N131" s="72"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="75"/>
+      <c r="B132" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C132" s="94"/>
+      <c r="D132" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E132" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F132" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="75"/>
+      <c r="B133" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D133" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E133" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="68"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="77"/>
+      <c r="N133" s="72"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="75"/>
+      <c r="B134" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="94"/>
+      <c r="D134" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F134" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="75"/>
+      <c r="L134" s="75"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="75"/>
+      <c r="B135" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D135" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" s="68"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
+      <c r="I135" s="75"/>
+      <c r="J135" s="75"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="77"/>
+      <c r="N135" s="72"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="75"/>
+      <c r="B136" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E136" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="68"/>
+      <c r="G136" s="75"/>
+      <c r="H136" s="75"/>
+      <c r="I136" s="75"/>
+      <c r="J136" s="75"/>
+      <c r="K136" s="75"/>
+      <c r="L136" s="77"/>
+      <c r="N136" s="72"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="75"/>
+      <c r="B137" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="94"/>
+      <c r="D137" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="75"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="75"/>
+      <c r="J137" s="75"/>
+      <c r="K137" s="75"/>
+      <c r="L137" s="75"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="75"/>
+      <c r="B138" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D138" s="85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E138" s="85" t="s">
+        <v>848</v>
+      </c>
+      <c r="F138" s="68"/>
+      <c r="G138" s="75"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="75"/>
+      <c r="J138" s="75"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="77"/>
+      <c r="N138" s="72"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="75"/>
+      <c r="B139" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D139" s="85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E139" s="85" t="s">
+        <v>848</v>
+      </c>
+      <c r="F139" s="68"/>
+      <c r="G139" s="75"/>
+      <c r="H139" s="75"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="75"/>
+      <c r="K139" s="75"/>
+      <c r="L139" s="77"/>
+      <c r="N139" s="72"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="75"/>
+      <c r="B140" s="75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C140" s="94"/>
+      <c r="D140" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="G140" s="75"/>
+      <c r="H140" s="75"/>
+      <c r="I140" s="75"/>
+      <c r="J140" s="75"/>
+      <c r="K140" s="75"/>
+      <c r="L140" s="75"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="75"/>
+      <c r="B141" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="M14" s="72"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C141" s="94"/>
+      <c r="D141" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="M15" s="72"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="F141" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="75"/>
+      <c r="H141" s="75"/>
+      <c r="I141" s="75"/>
+      <c r="J141" s="75"/>
+      <c r="K141" s="75"/>
+      <c r="L141" s="75"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="75"/>
+      <c r="B142" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="94"/>
+      <c r="D142" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="75"/>
+      <c r="H142" s="75"/>
+      <c r="I142" s="75"/>
+      <c r="J142" s="75"/>
+      <c r="K142" s="75"/>
+      <c r="L142" s="75"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="75"/>
+      <c r="B143" s="75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C143" s="94"/>
+      <c r="D143" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="75"/>
+      <c r="H143" s="75"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="75"/>
+      <c r="K143" s="75"/>
+      <c r="L143" s="75"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="75"/>
+      <c r="B144" s="75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C144" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D144" s="85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E144" s="85" t="s">
+        <v>848</v>
+      </c>
+      <c r="F144" s="68"/>
+      <c r="G144" s="75"/>
+      <c r="H144" s="75"/>
+      <c r="I144" s="75"/>
+      <c r="J144" s="75"/>
+      <c r="K144" s="75"/>
+      <c r="L144" s="77"/>
+      <c r="N144" s="72"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="75"/>
+      <c r="B145" s="75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C145" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D145" s="85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E145" s="85" t="s">
+        <v>848</v>
+      </c>
+      <c r="F145" s="68"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
+      <c r="K145" s="75"/>
+      <c r="L145" s="77"/>
+      <c r="N145" s="72"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="75"/>
+      <c r="B146" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="73"/>
-      <c r="M19" s="73"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C146" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D146" s="85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E146" s="85" t="s">
+        <v>848</v>
+      </c>
+      <c r="F146" s="68"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="75"/>
+      <c r="K146" s="75"/>
+      <c r="L146" s="77"/>
+      <c r="N146" s="72"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="75"/>
+      <c r="B147" s="75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="C147" s="93" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D147" s="85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E147" s="85" t="s">
+        <v>848</v>
+      </c>
+      <c r="F147" s="68"/>
+      <c r="G147" s="75"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="75"/>
+      <c r="L147" s="77"/>
+      <c r="N147" s="72"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="75"/>
+      <c r="B148" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="M21" s="72"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="C148" s="94"/>
+      <c r="D148" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="75"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="75"/>
+      <c r="J148" s="75"/>
+      <c r="K148" s="75"/>
+      <c r="L148" s="75"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="75"/>
+      <c r="B149" s="75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="C149" s="94"/>
+      <c r="D149" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="K30" s="72"/>
-      <c r="M30" s="72"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="72"/>
-      <c r="M31" s="72"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="K32" s="72"/>
-      <c r="M32" s="72"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="K33" s="72"/>
-      <c r="M33" s="72"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="72"/>
-      <c r="M34" s="72"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="72"/>
-      <c r="M35" s="72"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="72"/>
-      <c r="M36" s="72"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="K37" s="72"/>
-      <c r="M37" s="72"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38" s="72"/>
-      <c r="M38" s="72"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="72"/>
-      <c r="M39" s="72"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="72"/>
-      <c r="M40" s="72"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" s="72"/>
-      <c r="M41" s="72"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K49" s="72"/>
-      <c r="M49" s="72"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K50" s="72"/>
-      <c r="M50" s="72"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="K53" s="72"/>
-      <c r="M53" s="72"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K54" s="72"/>
-      <c r="M54" s="72"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K55" s="72"/>
-      <c r="M55" s="72"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K56" s="72"/>
-      <c r="M56" s="72"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62" s="72"/>
-      <c r="M62" s="72"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K63" s="72"/>
-      <c r="M63" s="72"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K64" s="72"/>
-      <c r="M64" s="72"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="72"/>
-      <c r="M65" s="72"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K66" s="72"/>
-      <c r="M66" s="72"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="72"/>
-      <c r="M67" s="72"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K68" s="72"/>
-      <c r="M68" s="72"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K69" s="72"/>
-      <c r="M69" s="72"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K70" s="72"/>
-      <c r="M70" s="72"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K71" s="72"/>
-      <c r="M71" s="72"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K72" s="72"/>
-      <c r="M72" s="72"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K73" s="72"/>
-      <c r="M73" s="72"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="K74" s="72"/>
-      <c r="M74" s="72"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K75" s="72"/>
-      <c r="M75" s="72"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K76" s="72"/>
-      <c r="M76" s="72"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K77" s="72"/>
-      <c r="M77" s="72"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K78" s="72"/>
-      <c r="M78" s="72"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K79" s="72"/>
-      <c r="M79" s="72"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="G149" s="75"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="75"/>
+      <c r="L149" s="75"/>
+    </row>
+    <row r="150" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A150" s="75"/>
+      <c r="B150" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="94"/>
+      <c r="D150" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G150" s="75"/>
+      <c r="H150" s="78"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="75"/>
+      <c r="K150" s="75"/>
+      <c r="L150" s="78"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="75"/>
+      <c r="B151" s="68" t="s">
         <v>1121</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K80" s="72"/>
-      <c r="M80" s="72"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K81" s="72"/>
-      <c r="M81" s="72"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K84" s="72"/>
-      <c r="M84" s="72"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K86" s="72"/>
-      <c r="M86" s="72"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K88" s="72"/>
-      <c r="M88" s="72"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E89" s="85" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K90" s="72"/>
-      <c r="M90" s="72"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="68" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="85" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C93" s="68" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="85" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C94" s="85" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="85" t="s">
-        <v>306</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D95" s="85" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K95" s="72"/>
-      <c r="M95" s="72"/>
-    </row>
-    <row r="96" spans="2:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="86" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K97" s="72"/>
-      <c r="M97" s="72"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K98" s="73"/>
-      <c r="M98" s="73"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K100" s="73"/>
-      <c r="M100" s="73"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K102" s="72"/>
-      <c r="M102" s="72"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M103" s="72"/>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K105" s="72"/>
-      <c r="M105" s="72"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="M106" s="72"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K107" s="72"/>
-      <c r="M107" s="72"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K109" s="72"/>
-      <c r="M109" s="72"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K110" s="72"/>
-      <c r="M110" s="72"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="K111" s="72"/>
-      <c r="M111" s="72"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K115" s="72"/>
-      <c r="M115" s="72"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K116" s="72"/>
-      <c r="M116" s="72"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K119" s="72"/>
-      <c r="M119" s="72"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K121" s="72"/>
-      <c r="M121" s="72"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K123" s="72"/>
-      <c r="M123" s="72"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K124" s="72"/>
-      <c r="M124" s="72"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K126" s="72"/>
-      <c r="M126" s="72"/>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K127" s="72"/>
-      <c r="M127" s="72"/>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" s="72"/>
-      <c r="M132" s="72"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="72"/>
-      <c r="M133" s="72"/>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K134" s="72"/>
-      <c r="M134" s="72"/>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" s="72"/>
-      <c r="M135" s="72"/>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="73"/>
-      <c r="K138" s="73"/>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" s="68" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
-        <v>1123</v>
-      </c>
+      <c r="C151" s="94"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="68"/>
+      <c r="F151" s="68"/>
+      <c r="G151" s="75"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="75"/>
+      <c r="K151" s="75"/>
+      <c r="L151" s="75"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="75"/>
+      <c r="C152" s="94"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="68"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="75"/>
+      <c r="J152" s="75"/>
+      <c r="K152" s="75"/>
+      <c r="L152" s="75"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="75"/>
+      <c r="B153" s="75"/>
+      <c r="C153" s="94"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="75"/>
+      <c r="J153" s="75"/>
+      <c r="K153" s="75"/>
+      <c r="L153" s="75"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="75"/>
+      <c r="B154" s="75"/>
+      <c r="C154" s="94"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="75"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="75"/>
+      <c r="J154" s="75"/>
+      <c r="K154" s="75"/>
+      <c r="L154" s="75"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E97:E140 D3:D75 E84 D98:D223 C98:C140 E86 B53 E3:E81 C3:C70 C72:C79 D77:D80 E88 E90 E95" xr:uid="{E7F224A3-2BB9-4BCA-81A0-710AE0F9AFF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D123:D125 E78:E80 F89 F121:F123 F125:F152 F91 E108 F53:F86 D81:D82 F100 E82:E85 F93 F95 E117 E119 D119:D121 E53:E76 B57 D17:D24 E121:E126 D129:E130 D132:E132 D134:E134 D137:D152 E137:E235 E113:E114 F116:F119 F102:F114 D110:E111 D103:E105 D79 F3:F26 E16:E26 E3:E14 D3:D11 D13:D14 D53:D65 D67:D75 D49:D51 D36:D47 F28:F51 E36:E51 D28:E33" xr:uid="{E7F224A3-2BB9-4BCA-81A0-710AE0F9AFF6}">
       <formula1>"B3:B200"</formula1>
     </dataValidation>
   </dataValidations>
